--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl13-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Cxcl13</t>
+  </si>
+  <si>
+    <t>Ackr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cxcl13</t>
-  </si>
-  <si>
-    <t>Ackr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,40 +540,40 @@
         <v>12.029543</v>
       </c>
       <c r="I2">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1143813333333333</v>
+        <v>0.1148133333333333</v>
       </c>
       <c r="N2">
-        <v>0.343144</v>
+        <v>0.34444</v>
       </c>
       <c r="O2">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="P2">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="Q2">
-        <v>0.4586517225768889</v>
+        <v>0.4603839767688889</v>
       </c>
       <c r="R2">
-        <v>4.127865503192</v>
+        <v>4.14345579092</v>
       </c>
       <c r="S2">
-        <v>0.03310890729880006</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="T2">
-        <v>0.03310890729880006</v>
+        <v>0.03343792635928704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +602,10 @@
         <v>12.029543</v>
       </c>
       <c r="I3">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>9.527947000000001</v>
       </c>
       <c r="O3">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="P3">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="Q3">
         <v>12.73520534869122</v>
@@ -632,10 +632,10 @@
         <v>114.616848138221</v>
       </c>
       <c r="S3">
-        <v>0.919322249466347</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="T3">
-        <v>0.919322249466347</v>
+        <v>0.9249645515654102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,226 +664,40 @@
         <v>12.029543</v>
       </c>
       <c r="I4">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9697248931871538</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05974466666666667</v>
+        <v>0.1428303333333333</v>
       </c>
       <c r="N4">
-        <v>0.179234</v>
+        <v>0.428491</v>
       </c>
       <c r="O4">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="P4">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="Q4">
-        <v>0.2395670122291111</v>
+        <v>0.5727278788458888</v>
       </c>
       <c r="R4">
-        <v>2.156103110062</v>
+        <v>5.154550909613</v>
       </c>
       <c r="S4">
-        <v>0.01729373642200688</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="T4">
-        <v>0.01729373642200688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1251886666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.375566</v>
-      </c>
-      <c r="I5">
-        <v>0.03027510681284623</v>
-      </c>
-      <c r="J5">
-        <v>0.03027510681284622</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.1143813333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.343144</v>
-      </c>
-      <c r="O5">
-        <v>0.03414257747883775</v>
-      </c>
-      <c r="P5">
-        <v>0.03414257747883775</v>
-      </c>
-      <c r="Q5">
-        <v>0.01431924661155556</v>
-      </c>
-      <c r="R5">
-        <v>0.128873219504</v>
-      </c>
-      <c r="S5">
-        <v>0.001033670180037691</v>
-      </c>
-      <c r="T5">
-        <v>0.001033670180037691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1251886666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.375566</v>
-      </c>
-      <c r="I6">
-        <v>0.03027510681284623</v>
-      </c>
-      <c r="J6">
-        <v>0.03027510681284622</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>3.175982333333334</v>
-      </c>
-      <c r="N6">
-        <v>9.527947000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.9480237703755849</v>
-      </c>
-      <c r="P6">
-        <v>0.9480237703755849</v>
-      </c>
-      <c r="Q6">
-        <v>0.3975969936668889</v>
-      </c>
-      <c r="R6">
-        <v>3.578372943002</v>
-      </c>
-      <c r="S6">
-        <v>0.02870152090923804</v>
-      </c>
-      <c r="T6">
-        <v>0.02870152090923804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1251886666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.375566</v>
-      </c>
-      <c r="I7">
-        <v>0.03027510681284623</v>
-      </c>
-      <c r="J7">
-        <v>0.03027510681284622</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.05974466666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.179234</v>
-      </c>
-      <c r="O7">
-        <v>0.01783365214557738</v>
-      </c>
-      <c r="P7">
-        <v>0.01783365214557738</v>
-      </c>
-      <c r="Q7">
-        <v>0.007479355160444445</v>
-      </c>
-      <c r="R7">
-        <v>0.06731419644400001</v>
-      </c>
-      <c r="S7">
-        <v>0.0005399157235704995</v>
-      </c>
-      <c r="T7">
-        <v>0.0005399157235704995</v>
+        <v>0.04159752207530271</v>
       </c>
     </row>
   </sheetData>
